--- a/Data/EC/NIT-9004129347.xlsx
+++ b/Data/EC/NIT-9004129347.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45345394-4126-4282-ACFE-08ADA222D873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BDF1F57-B214-49D6-82A9-09AE20D166A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6DBC4DD6-B026-41CB-A9C0-7506D9FFDC82}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3C90DBC8-A3B3-4775-A129-FDEAD932FB51}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,85 +71,85 @@
     <t>MAIRA ALEJANDRA CARDONA POLO</t>
   </si>
   <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
     <t>1704</t>
   </si>
   <si>
-    <t>1705</t>
-  </si>
-  <si>
     <t>73006545</t>
   </si>
   <si>
     <t>ALFONSO CARLOS BARRIOS PEÑA</t>
   </si>
   <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
   </si>
   <si>
     <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -563,7 +563,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95561694-153E-CC44-8DDD-7587CBDB536F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D7892B9-30F6-FEEE-1FBF-D9675C0945EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -914,7 +914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0F21DC-437C-4E5F-8416-FA71DBCAA681}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EF8D97-D9A5-47A2-B418-D8DD72C8BC74}">
   <dimension ref="B2:J60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1092,10 +1092,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>17708</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1115,10 +1115,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1129,13 +1129,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>31249</v>
@@ -1158,13 +1158,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>31249</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1175,13 +1175,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>31249</v>
@@ -1210,7 +1210,7 @@
         <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1221,10 +1221,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
@@ -1250,13 +1250,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1273,13 +1273,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
       </c>
       <c r="G24" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1290,13 +1290,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1319,13 +1319,13 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
       </c>
       <c r="G26" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1336,13 +1336,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1359,13 +1359,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1388,13 +1388,13 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
       </c>
       <c r="G29" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1411,13 +1411,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G30" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1428,16 +1428,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1451,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>26041</v>
       </c>
       <c r="G32" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1474,13 +1474,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1497,13 +1497,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1520,19 +1520,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
       </c>
       <c r="G35" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1543,13 +1543,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1566,19 +1566,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1589,19 +1589,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1612,13 +1612,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1635,13 +1635,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1658,19 +1658,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1681,13 +1681,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1704,19 +1704,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1727,13 +1727,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1750,19 +1750,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F45" s="18">
-        <v>17708</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1773,13 +1773,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1796,13 +1796,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -1819,13 +1819,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -1842,13 +1842,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -1865,13 +1865,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -1888,13 +1888,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -1911,13 +1911,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -1934,13 +1934,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -1957,16 +1957,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F54" s="24">
-        <v>26041</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="24">
         <v>781242</v>

--- a/Data/EC/NIT-9004129347.xlsx
+++ b/Data/EC/NIT-9004129347.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BDF1F57-B214-49D6-82A9-09AE20D166A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{843013DB-81CD-4DC9-BADC-3E5C8B1ADBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3C90DBC8-A3B3-4775-A129-FDEAD932FB51}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E2558E97-CDE5-4301-BF0B-D0A4588408EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,85 +71,85 @@
     <t>MAIRA ALEJANDRA CARDONA POLO</t>
   </si>
   <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>73006545</t>
+  </si>
+  <si>
+    <t>ALFONSO CARLOS BARRIOS PEÑA</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
     <t>2001</t>
   </si>
   <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>73006545</t>
-  </si>
-  <si>
-    <t>ALFONSO CARLOS BARRIOS PEÑA</t>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
   </si>
   <si>
     <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -248,7 +248,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -261,9 +263,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -463,23 +463,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,10 +507,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -563,7 +563,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D7892B9-30F6-FEEE-1FBF-D9675C0945EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F04AB2-9049-CFDD-9C1F-44F6D09FF73D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -914,7 +914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EF8D97-D9A5-47A2-B418-D8DD72C8BC74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCF4D5A-7904-4E40-838D-DEFBCDFDEC94}">
   <dimension ref="B2:J60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1092,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>17708</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1115,7 +1115,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1152,13 +1152,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="18">
         <v>31249</v>
@@ -1181,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>31249</v>
@@ -1198,10 +1198,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1244,13 +1244,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1273,7 +1273,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1290,13 +1290,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1319,7 +1319,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1336,13 +1336,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1365,7 +1365,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1382,13 +1382,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1411,10 +1411,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1428,16 +1428,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1451,16 +1451,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
-        <v>26041</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1474,13 +1474,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1497,13 +1497,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1520,13 +1520,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1543,13 +1543,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1566,13 +1566,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1589,13 +1589,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
@@ -1612,13 +1612,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1635,13 +1635,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1658,13 +1658,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1681,13 +1681,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1704,13 +1704,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1727,16 +1727,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>17708</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1750,13 +1750,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1773,13 +1773,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1796,13 +1796,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -1819,13 +1819,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -1842,13 +1842,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -1865,13 +1865,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -1888,13 +1888,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -1911,13 +1911,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -1934,13 +1934,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -1957,16 +1957,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F54" s="24">
-        <v>31249</v>
+        <v>26041</v>
       </c>
       <c r="G54" s="24">
         <v>781242</v>
